--- a/pred_ohlcv/54_21/2020-01-14 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-809521.6934002192</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-811040.3900002192</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-811040.3900002192</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-810029.8125002192</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-810029.8125002192</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-810029.8125002192</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-810922.2228002192</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-809945.7857002192</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-812578.6657002192</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-812578.6657002192</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-812578.6657002192</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-812578.6657002192</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-811927.7077002192</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-812797.3256002192</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-811582.5528002192</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-811582.5528002192</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-811908.0318002192</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-811908.0318002192</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-811908.0318002192</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-838414.0592002192</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-844051.4970039234</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-810059.8158039234</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-810059.8158039234</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-813356.4030039234</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-813356.4030039234</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-813356.4030039234</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-809771.6680039234</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-809771.6680039234</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-810217.3022039233</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-810217.3022039233</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-825979.8137039234</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-831818.0586039234</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-830715.5796039234</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-832479.8774039233</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-830064.2009039234</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-848869.0942039234</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-848869.0942039234</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-847642.8135039234</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-846813.0732039233</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-851698.7641039233</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-851047.8060039233</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-851940.5552039233</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-849649.4552039233</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-849649.4552039233</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-840317.9679039232</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-839236.1524039232</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-839236.1524039232</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-839906.2092039232</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-839906.2092039232</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-839906.2092039232</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-849806.2092039232</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-854025.4634039232</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-853049.0263039232</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-853049.0263039232</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-854025.4634039232</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-853162.3692039232</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-853162.3692039232</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-855565.4420039231</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-855565.4420039231</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-855565.4420039231</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-853784.0870039231</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-853784.0870039231</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-854109.5660039232</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-852559.9610039232</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-853779.9334039232</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-853779.9334039232</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-853779.9334039232</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-855319.2305039231</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-852409.5050039232</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-853604.8415039232</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-854031.6654039233</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-918004.324603923</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-918004.324603923</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-917410.165003923</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-917410.165003923</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-915321.511603923</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-915321.511603923</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-917177.516203923</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-915437.5908039231</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-916088.5489039231</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-918205.7364039231</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-916423.0750039231</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-916423.0750039231</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-916423.0750039231</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-918267.5794039231</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-928298.1774039231</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-844016.0655039231</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-844016.0655039231</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-842796.1744039231</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-842717.8546039232</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-841819.8866039232</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-841819.8866039232</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-844171.7980039231</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-844171.7980039231</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-862305.8531039231</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-845411.6385039232</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-893419.0714039232</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-892768.1134039231</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-894818.1543039231</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-894492.6753039231</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-895710.5048039231</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-895710.5048039231</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-895710.5048039231</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-894516.2582039231</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-894516.2582039231</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-896294.3836039231</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-896294.3836039231</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-895072.0853039231</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-895072.0853039231</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-896590.4675039231</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-896590.4675039231</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-894803.6560039232</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-896024.8052039231</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-895373.8471039231</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-896265.0148039231</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-896265.0148039231</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-894755.383803923</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-894755.383803923</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-895406.3419039231</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-895406.3419039231</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-898182.4833039229</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-898382.4616039229</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-898382.4616039229</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-899033.4196039229</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-897269.1722039229</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-897269.1722039229</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-899414.1506039229</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-942773.0498039229</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-942396.3982039229</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-942460.3553039229</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-942460.3553039229</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-942525.5269039229</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-943191.4508039228</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-942865.9718039228</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-943191.4508039228</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-941656.5140039228</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-943417.9136039228</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-942225.4859039228</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-944281.2051039229</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-944281.2051039229</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-944281.2051039229</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-943630.2470039228</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-944518.6870039228</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-944193.2080039227</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-944193.2080039227</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-945092.9177039227</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-955279.3547039228</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-955279.3547039228</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-955604.8337039228</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-954741.7015039228</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-956475.4533039228</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-956475.4533039228</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-956984.8067039228</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-955751.4320039228</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-955751.4320039228</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-954537.9697039227</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-955514.4068039227</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-955514.4068039227</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-952567.3339039228</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-953781.0229039228</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-955652.6590039228</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-954485.5260039228</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 IPX ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-811908.0318002192</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-857084.5519002193</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-810059.8158039234</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-810059.8158039234</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-813356.4030039234</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-813356.4030039234</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-813356.4030039234</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-809771.6680039234</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-809771.6680039234</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-810217.3022039233</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-810217.3022039233</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-825979.8137039234</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-831818.0586039234</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-830715.5796039234</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-832479.8774039233</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-830064.2009039234</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-830818.7802039234</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-848869.0942039234</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-848869.0942039234</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-847642.8135039234</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-848866.4982039233</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-846813.0732039233</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-848569.4624039233</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-849649.4552039233</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-849649.4552039233</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-840317.9679039232</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-839236.1524039232</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-839906.2092039232</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-839906.2092039232</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-849906.2092039232</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-849806.2092039232</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-854025.4634039232</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-853049.0263039232</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-853049.0263039232</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-854025.4634039232</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-853162.3692039232</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-853162.3692039232</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-855565.4420039231</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-855565.4420039231</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-855565.4420039231</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-853784.0870039231</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-853784.0870039231</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-854109.5660039232</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-852559.9610039232</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-853779.9334039232</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-853779.9334039232</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-853779.9334039232</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-853128.9754039232</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-855319.2305039231</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-852409.5050039232</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-853604.8415039232</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-854031.6654039233</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-918004.324603923</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-918004.324603923</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-917410.165003923</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-915321.511603923</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-915321.511603923</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-917177.516203923</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-915437.5908039231</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-916088.5489039231</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-918205.7364039231</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-916423.0750039231</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-916423.0750039231</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-916423.0750039231</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-918267.5794039231</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-928298.1774039231</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-844016.0655039231</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-844016.0655039231</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-842796.1744039231</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-841818.6756039232</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-842717.8546039232</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-841819.8866039232</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-841819.8866039232</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-844171.7980039231</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-844171.7980039231</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-844472.6562039232</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-862305.8531039231</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-862305.8531039231</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-862305.8531039231</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-862305.8531039231</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-845411.6385039232</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-847164.4986039232</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-893419.0714039232</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-893093.5924039232</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-892768.1134039231</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-894818.1543039231</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-894492.6753039231</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-895710.5048039231</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-895710.5048039231</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-895710.5048039231</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-894516.2582039231</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-894516.2582039231</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-896294.3836039231</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-896294.3836039231</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-895072.0853039231</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-895072.0853039231</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-896590.4675039231</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-896264.9885039231</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-896590.4675039231</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-894803.6560039232</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-896024.8052039231</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-895373.8471039231</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-896265.0148039231</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-896265.0148039231</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-894755.383803923</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-894755.383803923</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-895406.3419039231</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-895406.3419039231</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-894429.904903923</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-896209.435403923</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-895558.477303923</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-898507.962303923</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-898182.4833039229</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-899158.9204039229</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-899158.9204039229</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-898833.4414039229</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-898833.4414039229</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-900135.3576039228</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-898382.4616039229</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-898382.4616039229</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-899033.4196039229</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-897269.1722039229</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-897269.1722039229</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-897269.1722039229</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-899414.1506039229</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-899088.6716039228</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-899088.6716039228</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-899088.6716039228</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-899739.6296039228</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-897097.1296039228</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-897422.6086039229</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-897422.6086039229</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-897422.6086039229</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-897422.6086039229</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-896771.6505039228</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-942773.0498039229</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-942773.0498039229</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-942396.3982039229</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-942460.3553039229</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-942460.3553039229</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-942525.5269039229</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-941667.3260039228</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-943191.4508039228</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-942865.9718039228</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-943191.4508039228</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-941656.5140039228</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-943417.9136039228</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-942225.4859039228</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-944281.2051039229</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-944281.2051039229</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-944281.2051039229</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-943630.2470039228</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-944518.6870039228</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-944193.2080039227</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-944193.2080039227</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-945092.9177039227</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-955279.3547039228</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-955279.3547039228</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-955604.8337039228</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-954741.7015039228</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-956475.4533039228</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-956475.4533039228</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-955824.4953039228</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-956984.8067039228</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-955790.3364039228</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-954876.8574039227</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-955751.4320039228</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-953765.2970039228</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-954628.0384039228</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
